--- a/(UEL) cube_C3D8T_with_diffusion_elastic_srt_nlgeom_on/properties.xlsx
+++ b/(UEL) cube_C3D8T_with_diffusion_elastic_srt_nlgeom_on/properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>mechanical_descriptions</t>
   </si>
@@ -40,22 +40,40 @@
     <t>210.0e+9</t>
   </si>
   <si>
+    <t>Density for diffusion problem - rho_diff (kg/m^3)</t>
+  </si>
+  <si>
+    <t>Length scale - length_scale (m)</t>
+  </si>
+  <si>
+    <t>1.0e-3</t>
+  </si>
+  <si>
+    <t>Poisson ratio - nu (dimless)</t>
+  </si>
+  <si>
+    <t>0.3e0</t>
+  </si>
+  <si>
+    <t>Specific heat for diffusion problem - cp (N*m/m^3)</t>
+  </si>
+  <si>
+    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
+  </si>
+  <si>
+    <t>405.0e3</t>
+  </si>
+  <si>
     <t>Universal gas constant - R (N*m)/(mol*K)</t>
   </si>
   <si>
     <t>8.31446e0</t>
   </si>
   <si>
-    <t>Length scale - length_scale (m)</t>
-  </si>
-  <si>
-    <t>1.0e-3</t>
-  </si>
-  <si>
-    <t>Poisson ratio - nu (dimless)</t>
-  </si>
-  <si>
-    <t>0.3e0</t>
+    <t>Well-conditioning parameter - xkap (dimless)</t>
+  </si>
+  <si>
+    <t>1.0e-7</t>
   </si>
   <si>
     <t>Temperature - T (K)</t>
@@ -64,10 +82,10 @@
     <t>300.0e0</t>
   </si>
   <si>
-    <t>Critical energy release rate without hydrogen - Gc0 (N*m/m^2)</t>
-  </si>
-  <si>
-    <t>405.0e3</t>
+    <t>Fitting slope to DFT data X - chi_DFT (dimless)</t>
+  </si>
+  <si>
+    <t>0.89e0</t>
   </si>
   <si>
     <t>Partial molar volume - VH (m^3/mol)</t>
@@ -76,31 +94,16 @@
     <t>2e-06</t>
   </si>
   <si>
-    <t>Well-conditioning parameter - xkap (dimless)</t>
-  </si>
-  <si>
-    <t>1.0e-7</t>
+    <t>Gibbs free energy difference between the decohering interface and the surrounding material - delta_g_b0 (N*m/mol)</t>
+  </si>
+  <si>
+    <t>30000.0e0</t>
   </si>
   <si>
     <t>Diffusion coefficient - DL (m^2/s)</t>
   </si>
   <si>
-    <t>3.07e-10</t>
-  </si>
-  <si>
-    <t>Fitting slope to DFT data X - chi_DFT (dimless)</t>
-  </si>
-  <si>
-    <t>0.89e0</t>
-  </si>
-  <si>
     <t>mode_trap (1 - no trap I 2 - kumnick, krom | 3 - sofronis, dadfarnia)</t>
-  </si>
-  <si>
-    <t>Gibbs free energy difference between the decohering interface and the surrounding material - delta_g_b0 (N*m/mol)</t>
-  </si>
-  <si>
-    <t>30000.0e0</t>
   </si>
   <si>
     <t>crystal_structure (1 - BCC | 2 - FCC)</t>
@@ -250,12 +253,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -267,9 +273,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,6 +280,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +596,7 @@
     <col min="1" max="1" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="31.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="82.7192857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="38.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
@@ -605,7 +611,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -616,996 +622,1004 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.07e-10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
         <v>6.02214e+23</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
         <v>8.518e+28</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6">
         <v>8.464e+22</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
         <v>8.464e+26</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6">
         <v>2.866e-10</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6">
         <v>3.571e-10</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="7"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="7"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="7"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="7"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="7"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="7"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="7"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="7"/>
-      <c r="B100" s="5"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="7"/>
-      <c r="B101" s="5"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="7"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="7"/>
-      <c r="B103" s="5"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="7"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="7"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="7"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="7"/>
-      <c r="B105" s="5"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="7"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="7"/>
-      <c r="B106" s="5"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="7"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="7"/>
-      <c r="B107" s="5"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="7"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="7"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="7"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="7"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
